--- a/Databases/Coffee Data-20221211T192724Z-001/Coffee Data/rbica-e-Robusta-Production.xlsx
+++ b/Databases/Coffee Data-20221211T192724Z-001/Coffee Data/rbica-e-Robusta-Production.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte Ahrens\Documents\Documents\GitHub\Final_project_coffee_climate_\Databases\Coffee Data-20221211T192724Z-001\Coffee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F214F-5F0B-47C6-82B0-16F1CF1F235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F4839-8DE3-4A53-BE77-362E2649AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
